--- a/1.3 payback.xlsx
+++ b/1.3 payback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Privacy\ASU_Fall22\CSE441 Software Project Management\Project\MyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F8E719-C4EC-4DC7-B002-77F8ADBDAC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78990C2-E8CE-4C54-91C6-C62941F64689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,14 +91,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -230,43 +253,43 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>500000</c:v>
+                  <c:v>1290000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>550000</c:v>
+                  <c:v>1440000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>720000</c:v>
+                  <c:v>2610000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>810000</c:v>
+                  <c:v>2800000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>920000</c:v>
+                  <c:v>2911000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1010000</c:v>
+                  <c:v>3811000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1160000</c:v>
+                  <c:v>3961000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1180000</c:v>
+                  <c:v>4161000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1200000</c:v>
+                  <c:v>4361000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1220000</c:v>
+                  <c:v>4561000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1240000</c:v>
+                  <c:v>4761000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1260000</c:v>
+                  <c:v>4961000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1280000</c:v>
+                  <c:v>5161000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,43 +362,43 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>400000</c:v>
+                  <c:v>1200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>450000</c:v>
+                  <c:v>1250000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500000</c:v>
+                  <c:v>1750000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>540000</c:v>
+                  <c:v>1890000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>580000</c:v>
+                  <c:v>1904000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>620000</c:v>
+                  <c:v>2044000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>660000</c:v>
+                  <c:v>3444000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>750000</c:v>
+                  <c:v>5344000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>840000</c:v>
+                  <c:v>7244000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1040000</c:v>
+                  <c:v>8444000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1290000</c:v>
+                  <c:v>9694000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1540000</c:v>
+                  <c:v>10944000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1790000</c:v>
+                  <c:v>12194000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,12 +662,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.4245</cdr:x>
-      <cdr:y>0.1994</cdr:y>
+      <cdr:x>0.28393</cdr:x>
+      <cdr:y>0.33992</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65697</cdr:x>
-      <cdr:y>0.2433</cdr:y>
+      <cdr:x>0.50357</cdr:x>
+      <cdr:y>0.38383</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -655,8 +678,8 @@
       </cdr:nvSpPr>
       <cdr:spPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2830325" y="929896"/>
-          <a:ext cx="1550040" cy="204736"/>
+          <a:off x="1893094" y="1585210"/>
+          <a:ext cx="1464440" cy="204736"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -696,7 +719,7 @@
               <a:latin typeface="Arial"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t> Month 10</a:t>
+            <a:t> Month 7</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" strike="noStrike">
             <a:solidFill>
@@ -711,12 +734,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.65901</cdr:x>
-      <cdr:y>0.25059</cdr:y>
+      <cdr:x>0.46815</cdr:x>
+      <cdr:y>0.40745</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.73009</cdr:x>
-      <cdr:y>0.38219</cdr:y>
+      <cdr:x>0.53923</cdr:x>
+      <cdr:y>0.53905</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -727,7 +750,7 @@
       </cdr:nvSpPr>
       <cdr:spPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4393930" y="1168627"/>
+          <a:off x="3121409" y="1900131"/>
           <a:ext cx="473926" cy="613709"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
@@ -1099,7 +1122,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1109,19 +1132,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1129,19 +1152,19 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>500000</v>
-      </c>
-      <c r="C2">
-        <v>400000</v>
+      <c r="B2" s="3">
+        <v>1290000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1200000</v>
       </c>
       <c r="D2" s="1">
         <f>B2</f>
-        <v>500000</v>
+        <v>1290000</v>
       </c>
       <c r="E2" s="1">
         <f>C2</f>
-        <v>400000</v>
+        <v>1200000</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1150,19 +1173,19 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="3">
+        <v>150000</v>
+      </c>
+      <c r="C3" s="4">
         <v>50000</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:E14" si="0">D2+B3</f>
-        <v>550000</v>
+        <v>1440000</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>450000</v>
+        <v>1250000</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1171,19 +1194,19 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>170000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>50000</v>
+      <c r="B4" s="3">
+        <v>1170000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>500000</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>720000</v>
+        <v>2610000</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>1750000</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1192,19 +1215,19 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>90000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40000</v>
+      <c r="B5" s="3">
+        <v>190000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>140000</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>810000</v>
+        <v>2800000</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>540000</v>
+        <v>1890000</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1213,19 +1236,19 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>110000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>40000</v>
+      <c r="B6" s="3">
+        <v>111000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>14000</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>920000</v>
+        <v>2911000</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>580000</v>
+        <v>1904000</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1233,158 +1256,159 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>90000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>40000</v>
+      <c r="B7" s="3">
+        <v>900000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>140000</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>1010000</v>
+        <v>3811000</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>620000</v>
+        <v>2044000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>150000</v>
       </c>
-      <c r="C8" s="1">
-        <v>40000</v>
+      <c r="C8" s="4">
+        <v>1400000</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>1160000</v>
+        <v>3961000</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>660000</v>
+        <v>3444000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>90000</v>
+      <c r="B9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1900000</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>1180000</v>
+        <v>4161000</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>750000</v>
+        <v>5344000</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>90000</v>
+      <c r="B10" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1900000</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>1200000</v>
+        <v>4361000</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>840000</v>
+        <v>7244000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="3">
         <v>200000</v>
       </c>
+      <c r="C11" s="4">
+        <v>1200000</v>
+      </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>1220000</v>
+        <v>4561000</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>1040000</v>
+        <v>8444000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>250000</v>
+      <c r="B12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1250000</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>1240000</v>
+        <v>4761000</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>1290000</v>
+        <v>9694000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>250000</v>
+      <c r="B13" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1250000</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>1260000</v>
+        <v>4961000</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>1540000</v>
+        <v>10944000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>250000</v>
+      <c r="B14" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1250000</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>1280000</v>
+        <v>5161000</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>1790000</v>
+        <v>12194000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>